--- a/Kostenplanung.xlsx
+++ b/Kostenplanung.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Kostenart</t>
   </si>
@@ -55,6 +55,9 @@
   <si>
     <t>Kostenplanung</t>
   </si>
+  <si>
+    <t>Gesamt</t>
+  </si>
 </sst>
 </file>
 
@@ -84,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -92,24 +95,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="9">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -361,11 +544,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="319115384"/>
-        <c:axId val="319114992"/>
+        <c:axId val="174121840"/>
+        <c:axId val="143744880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="319115384"/>
+        <c:axId val="174121840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -408,7 +591,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319114992"/>
+        <c:crossAx val="143744880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -416,7 +599,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="319114992"/>
+        <c:axId val="143744880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -467,7 +650,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319115384"/>
+        <c:crossAx val="174121840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1097,16 +1280,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>23811</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>185736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1172,18 +1355,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="B6:G10" totalsRowCount="1" headerRowDxfId="2">
-  <autoFilter ref="B6:G9"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="Kostenart"/>
-    <tableColumn id="2" name="Okt 16" dataDxfId="1" totalsRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="B6:H10" totalsRowCount="1" headerRowDxfId="8">
+  <autoFilter ref="B6:H9"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Kostenart" dataDxfId="0"/>
+    <tableColumn id="2" name="Okt 16" dataDxfId="6" totalsRowDxfId="7">
       <calculatedColumnFormula>SUM(C5:C6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Nov 16"/>
-    <tableColumn id="4" name="Dez 16"/>
-    <tableColumn id="5" name="Jan 17"/>
-    <tableColumn id="6" name="Feb 17" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(C9:G9)</totalsRowFormula>
+    <tableColumn id="3" name="Nov 16" dataDxfId="5"/>
+    <tableColumn id="4" name="Dez 16" dataDxfId="4"/>
+    <tableColumn id="5" name="Jan 17" dataDxfId="3"/>
+    <tableColumn id="6" name="Feb 17" dataDxfId="2"/>
+    <tableColumn id="7" name="Gesamt" dataDxfId="1">
+      <calculatedColumnFormula>SUM(Tabelle2[[#This Row],[Okt 16]:[Feb 17]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1456,124 +1640,136 @@
   <dimension ref="A2:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <f>11*100</f>
         <v>1100</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <f>22*100</f>
         <v>2200</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <f>21*100</f>
         <v>2100</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <f>22*100</f>
         <v>2200</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="4">
         <f>8*100</f>
         <v>800</v>
       </c>
+      <c r="H7" s="4">
+        <f>SUM(Tabelle2[[#This Row],[Okt 16]:[Feb 17]])</f>
+        <v>8400</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>0</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>25</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>0</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="4">
         <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <f>SUM(Tabelle2[[#This Row],[Okt 16]:[Feb 17]])</f>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <f t="shared" ref="C9" si="0">SUM(C7:C8)</f>
         <v>1100</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <f t="shared" ref="D9" si="1">SUM(D7:D8)</f>
         <v>2225</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <f t="shared" ref="E9" si="2">SUM(E7:E8)</f>
         <v>2100</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="4">
         <f t="shared" ref="F9" si="3">SUM(F7:F8)</f>
         <v>2200</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="4">
         <f t="shared" ref="G9" si="4">SUM(G7:G8)</f>
         <v>800</v>
       </c>
+      <c r="H9" s="4">
+        <f>SUM(Tabelle2[[#This Row],[Okt 16]:[Feb 17]])</f>
+        <v>8425</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="2"/>
-      <c r="G10">
-        <f>SUM(C9:G9)</f>
-        <v>8425</v>
-      </c>
+      <c r="C10" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
